--- a/src/main/webapp/WEB-INF/upload/test_CN.xlsx
+++ b/src/main/webapp/WEB-INF/upload/test_CN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21480" windowHeight="10965" activeTab="5"/>
+    <workbookView windowWidth="21480" windowHeight="10965" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="系统设置" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210">
   <si>
     <r>
       <rPr>
@@ -93,7 +93,7 @@
     <t>要显示的页面，一种是统计页，一种是台账类型详细页，详细页有分页，统计部分页,顺序根据定义先后设置1.detail; 2.detail&amp;statistic;     3.statistic; 4.statistic&amp;detail;</t>
   </si>
   <si>
-    <t>statistic&amp;detail</t>
+    <t>detail</t>
   </si>
   <si>
     <t>DETAILSETSHEET</t>
@@ -206,9 +206,6 @@
     <t>表头行</t>
   </si>
   <si>
-    <t>1,3</t>
-  </si>
-  <si>
     <t>指出报表的表头有哪些行</t>
   </si>
   <si>
@@ -249,6 +246,15 @@
   </si>
   <si>
     <t>执行SQL_2</t>
+  </si>
+  <si>
+    <t>QUERYSQL_1</t>
+  </si>
+  <si>
+    <t>select * from project</t>
+  </si>
+  <si>
+    <t>DATA_1</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -303,27 +309,6 @@
     <t>必须输入</t>
   </si>
   <si>
-    <t>机构号</t>
-  </si>
-  <si>
-    <t>ORGNO</t>
-  </si>
-  <si>
-    <t>combobox</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>所属机构</t>
-  </si>
-  <si>
-    <t>BELONGORGNO</t>
-  </si>
-  <si>
-    <t>belongOrg</t>
-  </si>
-  <si>
     <t>开始时间</t>
   </si>
   <si>
@@ -339,118 +324,232 @@
     <t>ENDDATE</t>
   </si>
   <si>
-    <t>客户号</t>
-  </si>
-  <si>
-    <t>CORPNO</t>
-  </si>
-  <si>
-    <t>textbox</t>
-  </si>
-  <si>
-    <t>客户经理</t>
-  </si>
-  <si>
-    <t>MANAGERID</t>
-  </si>
-  <si>
-    <t>币种</t>
-  </si>
-  <si>
-    <t>CUR</t>
-  </si>
-  <si>
-    <t>金额</t>
-  </si>
-  <si>
-    <t>AMT</t>
-  </si>
-  <si>
-    <t>numberbox</t>
-  </si>
-  <si>
-    <t>明细表</t>
-  </si>
-  <si>
-    <t>机构：{DATASUM_1.机构名称}</t>
-  </si>
-  <si>
-    <t>机构名称</t>
-  </si>
-  <si>
-    <t>保函通知编号</t>
-  </si>
-  <si>
-    <t>保函编号</t>
-  </si>
-  <si>
-    <t>是否反担保</t>
-  </si>
-  <si>
-    <t>保函币种</t>
-  </si>
-  <si>
-    <t>保函金额</t>
-  </si>
-  <si>
-    <t>保函开立银行SWIFTCODE</t>
-  </si>
-  <si>
-    <t>保函开立银行名称地址</t>
-  </si>
-  <si>
-    <t>受益人类型</t>
-  </si>
-  <si>
-    <t>受益人名称</t>
-  </si>
-  <si>
-    <t>受益人编号</t>
-  </si>
-  <si>
-    <t>受益人名称地址</t>
-  </si>
-  <si>
-    <t>申请人名称</t>
-  </si>
-  <si>
-    <t>2121&amp;{DATA_1.REV_}</t>
-  </si>
-  <si>
-    <t>saaw{DATA_1.NAME_}</t>
-  </si>
-  <si>
-    <t>{DATA_1.PROC_INST_ID_}</t>
-  </si>
-  <si>
-    <t>{DATA_1.是否反担保}</t>
-  </si>
-  <si>
-    <t>{DATA_1.保函币种}</t>
-  </si>
-  <si>
-    <t>{DATA_1.保函金额}</t>
-  </si>
-  <si>
-    <t>{DATA_1.保函开立银行SWIFTCODE}</t>
-  </si>
-  <si>
-    <t>111{DATA_1.保函开立银行名称地址}</t>
-  </si>
-  <si>
-    <t>222{DATA_1.受益人类型}</t>
-  </si>
-  <si>
-    <t>222{DATA_1.受益人名称}</t>
-  </si>
-  <si>
-    <t>{DATA_1.受益人编号}</t>
-  </si>
-  <si>
-    <t>{DATA_1.受益人名称地址}</t>
-  </si>
-  <si>
-    <t>{DATA_1.申请人名称}</t>
+    <t>LegalEntity</t>
+  </si>
+  <si>
+    <t>ABU</t>
+  </si>
+  <si>
+    <t>DBU</t>
+  </si>
+  <si>
+    <t>DTM</t>
+  </si>
+  <si>
+    <t>部门</t>
+  </si>
+  <si>
+    <t>项目编号</t>
+  </si>
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>合同方</t>
+  </si>
+  <si>
+    <t>最终客户</t>
+  </si>
+  <si>
+    <t>Account Group</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Frontlog收入确认时间</t>
+  </si>
+  <si>
+    <t>EATP预计合同签订时间</t>
+  </si>
+  <si>
+    <t>项目类型</t>
+  </si>
+  <si>
+    <t>工作城市</t>
+  </si>
+  <si>
+    <t>计划开始</t>
+  </si>
+  <si>
+    <t>计划结束</t>
+  </si>
+  <si>
+    <t>实际开始</t>
+  </si>
+  <si>
+    <t>实际结束</t>
+  </si>
+  <si>
+    <t>技术名称</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>收入确认类型</t>
+  </si>
+  <si>
+    <t>MainSub</t>
+  </si>
+  <si>
+    <t>Associated Primary PID</t>
+  </si>
+  <si>
+    <t>ONOFFTRIP</t>
+  </si>
+  <si>
+    <t>ProductLine</t>
+  </si>
+  <si>
+    <t>Cost Center</t>
+  </si>
+  <si>
+    <t>ABU-CCC</t>
+  </si>
+  <si>
+    <t>Combine To CCC</t>
+  </si>
+  <si>
+    <t>IsCrossCharge</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>创建人</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>更新人</t>
+  </si>
+  <si>
+    <t>更新日期</t>
+  </si>
+  <si>
+    <t>RevenueType</t>
+  </si>
+  <si>
+    <t>RevRec</t>
+  </si>
+  <si>
+    <t>结算币种</t>
+  </si>
+  <si>
+    <t>SmartData</t>
+  </si>
+  <si>
+    <t>订单类型</t>
+  </si>
+  <si>
+    <t>机会编号</t>
+  </si>
+  <si>
+    <t>销售</t>
+  </si>
+  <si>
+    <t>Contract Amount_Delivery</t>
+  </si>
+  <si>
+    <t>Contract Amount_EATP</t>
+  </si>
+  <si>
+    <t>Contract Amount_Total</t>
+  </si>
+  <si>
+    <t>活动/非活动</t>
+  </si>
+  <si>
+    <t>BG Solution Type_L1</t>
+  </si>
+  <si>
+    <t>BG Solution Type_L2</t>
+  </si>
+  <si>
+    <t>项目管理模式</t>
+  </si>
+  <si>
+    <t>Working Location</t>
+  </si>
+  <si>
+    <t>Partnership</t>
+  </si>
+  <si>
+    <t>Project Region</t>
+  </si>
+  <si>
+    <t>MS Division</t>
+  </si>
+  <si>
+    <t>Pipeline PID</t>
+  </si>
+  <si>
+    <t>Pipeline转正式日期</t>
+  </si>
+  <si>
+    <t>是否有里程碑信息</t>
+  </si>
+  <si>
+    <t>计划开票日期</t>
+  </si>
+  <si>
+    <t>计划开票金额</t>
+  </si>
+  <si>
+    <t>实际开票日期</t>
+  </si>
+  <si>
+    <t>实际开票币种</t>
+  </si>
+  <si>
+    <t>实际开票金额</t>
+  </si>
+  <si>
+    <t>实际开票净额</t>
+  </si>
+  <si>
+    <t>实际税额</t>
+  </si>
+  <si>
+    <t>发票差异额</t>
+  </si>
+  <si>
+    <t>财务备注</t>
+  </si>
+  <si>
+    <t>BO备注</t>
+  </si>
+  <si>
+    <t>PM备注</t>
+  </si>
+  <si>
+    <t>收款时间</t>
+  </si>
+  <si>
+    <t>记账本位币</t>
+  </si>
+  <si>
+    <t>收款金额</t>
+  </si>
+  <si>
+    <t>收款差异额</t>
+  </si>
+  <si>
+    <t>数据是否异常</t>
+  </si>
+  <si>
+    <t>{DATA_1.costCenter}</t>
+  </si>
+  <si>
+    <t>{DATA_1.status}</t>
   </si>
   <si>
     <t>宁夏银行外汇业务统计表</t>
@@ -479,6 +578,9 @@
   </si>
   <si>
     <t>笔数</t>
+  </si>
+  <si>
+    <t>金额</t>
   </si>
   <si>
     <t>一、国际结算量</t>
@@ -633,11 +735,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -678,40 +780,16 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial Unicode MS"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
+      <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="18"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial Unicode MS"/>
       <charset val="134"/>
     </font>
     <font>
@@ -720,7 +798,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,7 +807,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,7 +842,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -782,16 +866,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color indexed="55"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color indexed="55"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -812,23 +903,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -899,55 +990,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -956,19 +1008,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -983,19 +1035,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1007,10 +1059,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1371,7 +1423,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1381,34 +1433,34 @@
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="60" customFormat="1" spans="1:3">
-      <c r="A1" s="61" t="s">
+    <row r="1" s="49" customFormat="1" spans="1:3">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="137.25" customHeight="1" spans="1:7">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="63"/>
+      <c r="G2" s="52"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C3">
@@ -1416,10 +1468,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="48" t="s">
         <v>9</v>
       </c>
       <c r="C4">
@@ -1427,10 +1479,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C5">
@@ -1438,10 +1490,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="48" t="s">
         <v>13</v>
       </c>
       <c r="C6">
@@ -1449,10 +1501,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="48" t="s">
         <v>15</v>
       </c>
       <c r="C7">
@@ -1466,7 +1518,7 @@
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1499,13 +1551,13 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22" style="43" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="44" customWidth="1"/>
+    <col min="1" max="1" width="22" style="32" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="33" customWidth="1"/>
     <col min="3" max="3" width="48.5" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="27.5" customWidth="1"/>
@@ -1514,137 +1566,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="34" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="39">
+        <v>1</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="51" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="46" t="s">
+      <c r="B5" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="C5" s="39">
+        <v>2</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="50">
-        <v>4</v>
-      </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="17" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="35" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="46" t="s">
+      <c r="B6" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="17" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="35" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="46" t="s">
+      <c r="B7" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="C7" s="42">
+        <v>80</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
+    </row>
+    <row r="8" ht="27" spans="1:5">
+      <c r="A8" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="53">
-        <v>12</v>
-      </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54"/>
-    </row>
-    <row r="8" ht="27" spans="1:5">
-      <c r="A8" s="46" t="s">
+      <c r="B8" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="C8" s="44"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="56" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="35" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="46" t="s">
+      <c r="B9" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="43" t="s">
-        <v>52</v>
+      <c r="A30" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="B30"/>
     </row>
@@ -1672,13 +1735,13 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22" style="43" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="44" customWidth="1"/>
+    <col min="1" max="1" width="22" style="32" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="33" customWidth="1"/>
     <col min="3" max="3" width="48.5" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="27.5" customWidth="1"/>
@@ -1687,166 +1750,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="34" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="C3" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="42">
+        <v>15</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
+    </row>
+    <row r="9" ht="63" customHeight="1" spans="1:5">
+      <c r="A9" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
+    </row>
+    <row r="11" customFormat="1" ht="57" customHeight="1" spans="1:6">
+      <c r="A11" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48"/>
+    </row>
+    <row r="33" customFormat="1" spans="1:1">
+      <c r="A33" s="32" t="s">
         <v>54</v>
-      </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="51" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="53">
-        <v>15</v>
-      </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
-    </row>
-    <row r="9" ht="63" customHeight="1" spans="1:5">
-      <c r="A9" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="56" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="54"/>
-    </row>
-    <row r="11" customFormat="1" ht="57" customHeight="1" spans="1:6">
-      <c r="A11" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="59"/>
-    </row>
-    <row r="33" customFormat="1" spans="1:1">
-      <c r="A33" s="43" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1870,10 +1933,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1882,272 +1945,220 @@
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="14" style="38" customWidth="1"/>
+    <col min="6" max="6" width="14" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.95" customHeight="1" spans="1:6">
-      <c r="A1" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="39" t="s">
+      <c r="A1" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="B1" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="D1" s="28" t="s">
         <v>68</v>
       </c>
+      <c r="E1" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="17" t="s">
-        <v>69</v>
+      <c r="A2" s="30" t="s">
+        <v>71</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="41" t="s">
+      <c r="C2" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="42" t="s">
-        <v>34</v>
+      <c r="D2" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>53</v>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="41" t="s">
-        <v>76</v>
-      </c>
+      <c r="A4" s="17"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42" t="s">
-        <v>53</v>
-      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="41" t="s">
-        <v>79</v>
-      </c>
+      <c r="A5" s="17"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42" t="s">
-        <v>53</v>
-      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="41" t="s">
-        <v>81</v>
-      </c>
+      <c r="A6" s="17"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42" t="s">
-        <v>34</v>
-      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="17" t="s">
-        <v>84</v>
-      </c>
+      <c r="A7" s="17"/>
       <c r="B7" s="17"/>
-      <c r="C7" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42" t="s">
-        <v>53</v>
-      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="17" t="s">
-        <v>86</v>
-      </c>
+      <c r="A8" s="17"/>
       <c r="B8" s="17"/>
-      <c r="C8" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42" t="s">
-        <v>34</v>
-      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="17" t="s">
-        <v>88</v>
-      </c>
+      <c r="A9" s="17"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42" t="s">
-        <v>34</v>
-      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="42"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="17"/>
@@ -2155,7 +2166,7 @@
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
-      <c r="F24" s="42"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="17"/>
@@ -2163,7 +2174,7 @@
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="42"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="17"/>
@@ -2171,7 +2182,7 @@
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="42"/>
+      <c r="F26" s="31"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="17"/>
@@ -2179,7 +2190,7 @@
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
-      <c r="F27" s="42"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="17"/>
@@ -2187,7 +2198,7 @@
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="42"/>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="17"/>
@@ -2195,7 +2206,7 @@
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
-      <c r="F29" s="42"/>
+      <c r="F29" s="31"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="17"/>
@@ -2203,7 +2214,7 @@
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
-      <c r="F30" s="42"/>
+      <c r="F30" s="31"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="17"/>
@@ -2211,7 +2222,7 @@
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
-      <c r="F31" s="42"/>
+      <c r="F31" s="31"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="17"/>
@@ -2219,7 +2230,7 @@
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
-      <c r="F32" s="42"/>
+      <c r="F32" s="31"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="17"/>
@@ -2227,7 +2238,7 @@
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="42"/>
+      <c r="F33" s="31"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="17"/>
@@ -2235,7 +2246,7 @@
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
-      <c r="F34" s="42"/>
+      <c r="F34" s="31"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="17"/>
@@ -2243,7 +2254,7 @@
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
-      <c r="F35" s="42"/>
+      <c r="F35" s="31"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="17"/>
@@ -2251,7 +2262,7 @@
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
-      <c r="F36" s="42"/>
+      <c r="F36" s="31"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="17"/>
@@ -2259,7 +2270,7 @@
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
-      <c r="F37" s="42"/>
+      <c r="F37" s="31"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="17"/>
@@ -2267,7 +2278,7 @@
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
-      <c r="F38" s="42"/>
+      <c r="F38" s="31"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="17"/>
@@ -2275,7 +2286,7 @@
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
-      <c r="F39" s="42"/>
+      <c r="F39" s="31"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="17"/>
@@ -2283,7 +2294,7 @@
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
-      <c r="F40" s="42"/>
+      <c r="F40" s="31"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="17"/>
@@ -2291,7 +2302,7 @@
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
-      <c r="F41" s="42"/>
+      <c r="F41" s="31"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="17"/>
@@ -2299,7 +2310,7 @@
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
-      <c r="F42" s="42"/>
+      <c r="F42" s="31"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="17"/>
@@ -2307,7 +2318,7 @@
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
-      <c r="F43" s="42"/>
+      <c r="F43" s="31"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="17"/>
@@ -2315,7 +2326,7 @@
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
-      <c r="F44" s="42"/>
+      <c r="F44" s="31"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="17"/>
@@ -2323,7 +2334,7 @@
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
-      <c r="F45" s="42"/>
+      <c r="F45" s="31"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="17"/>
@@ -2331,7 +2342,7 @@
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
-      <c r="F46" s="42"/>
+      <c r="F46" s="31"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="17"/>
@@ -2339,67 +2350,19 @@
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
-      <c r="F47" s="42"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="42"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="42"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="42"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="42"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="42"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="42"/>
+      <c r="F47" s="31"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6 D7:D9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+      <formula1>"YES,NO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
       <formula1>"textbox,combobox,datebox,numberbox,searchbox"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D53 E9:E53 F10:F53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D47 E4:E47 F4:F47">
       <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6 F7:F9">
-      <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2411,144 +2374,250 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:BW2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
-  <cols>
-    <col min="1" max="1" width="38.5" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="24.75" customWidth="1"/>
-    <col min="8" max="8" width="35.125" customWidth="1"/>
-    <col min="9" max="9" width="20.25" customWidth="1"/>
-    <col min="10" max="10" width="18.375" customWidth="1"/>
-    <col min="11" max="11" width="13.75" customWidth="1"/>
-    <col min="12" max="12" width="33.125" customWidth="1"/>
-    <col min="13" max="13" width="19" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" s="24" customFormat="1" ht="33.75" spans="1:8">
-      <c r="A1" s="28" t="s">
+    <row r="1" ht="14.25" spans="1:75">
+      <c r="A1" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-    </row>
-    <row r="2" s="25" customFormat="1" ht="24" customHeight="1" spans="1:9">
-      <c r="A2" s="30" t="s">
+      <c r="Q1" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-    </row>
-    <row r="3" s="26" customFormat="1" ht="20" customHeight="1" spans="1:13">
-      <c r="A3" s="26" t="s">
+      <c r="R1" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="S1" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="T1" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="U1" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="V1" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="W1" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="X1" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="Y1" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="Z1" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="AA1" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="AB1" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="AC1" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="AD1" s="24" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="4" s="27" customFormat="1" ht="16.5" spans="1:13">
-      <c r="A4" s="32" t="s">
+      <c r="AE1" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="AF1" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="AG1" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="AI1" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="AJ1" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="AK1" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="AL1" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="AM1" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="AN1" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="AO1" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="AP1" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="AQ1" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="AR1" s="24" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="5" spans="9:9">
-      <c r="I5" s="37"/>
+      <c r="AS1" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT1" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU1" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV1" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW1" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX1" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY1" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ1" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="BA1" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB1" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC1" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD1" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE1" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF1" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG1" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH1" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="BI1" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="BJ1" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK1" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="BL1" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="BM1" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="BN1" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="BO1" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="BP1" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="BQ1" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="BR1" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="BS1" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="BT1" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="BU1" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="BV1" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="BW1" s="26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:G2"/>
-  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2560,7 +2629,7 @@
   <sheetPr/>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:B9"/>
     </sheetView>
   </sheetViews>
@@ -2575,7 +2644,7 @@
   <sheetData>
     <row r="1" customFormat="1" ht="32" customHeight="1" spans="1:14">
       <c r="A1" s="4" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
@@ -2593,7 +2662,7 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="21" customHeight="1" spans="1:14">
       <c r="A2" s="8" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -2601,7 +2670,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="10" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -2613,25 +2682,25 @@
     </row>
     <row r="3" customFormat="1" ht="20" customHeight="1" spans="1:14">
       <c r="A3" s="11" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="12" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="12" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="12" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
@@ -2641,47 +2710,47 @@
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="12" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="12" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="M4" s="14"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" customFormat="1" ht="25.5" spans="1:14">
       <c r="A5" s="12" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="15" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -2695,7 +2764,7 @@
     </row>
     <row r="6" customFormat="1" ht="14.25" spans="1:14">
       <c r="A6" s="12" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
@@ -2708,14 +2777,14 @@
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
     </row>
     <row r="7" customFormat="1" ht="14.25" spans="1:14">
       <c r="A7" s="18" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
@@ -2724,7 +2793,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -2735,14 +2804,14 @@
     </row>
     <row r="8" customFormat="1" ht="15" customHeight="1" spans="1:14">
       <c r="A8" s="18" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="15" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -2750,7 +2819,7 @@
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
@@ -2759,7 +2828,7 @@
     </row>
     <row r="9" customFormat="1" ht="14.25" spans="1:14">
       <c r="A9" s="18" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
@@ -2771,7 +2840,7 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
@@ -2779,15 +2848,15 @@
     </row>
     <row r="10" customFormat="1" ht="17" customHeight="1" spans="1:14">
       <c r="A10" s="18" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="15" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="17" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
@@ -2801,43 +2870,43 @@
     </row>
     <row r="11" customFormat="1" ht="20" customHeight="1" spans="1:14">
       <c r="A11" s="18" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="15" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="17" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
     <row r="12" customFormat="1" ht="14.25" spans="1:14">
       <c r="A12" s="18" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -2849,22 +2918,22 @@
     </row>
     <row r="13" customFormat="1" ht="20" customHeight="1" spans="1:14">
       <c r="A13" s="18" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="15" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
@@ -2873,12 +2942,12 @@
     </row>
     <row r="14" customFormat="1" ht="14.25" spans="1:14">
       <c r="A14" s="12" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -2893,7 +2962,7 @@
     </row>
     <row r="15" customFormat="1" ht="14.25" spans="1:14">
       <c r="A15" s="18" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
@@ -2911,14 +2980,14 @@
     </row>
     <row r="16" customFormat="1" ht="18" customHeight="1" spans="1:14">
       <c r="A16" s="18" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="15" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -2927,7 +2996,7 @@
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
@@ -2935,7 +3004,7 @@
     </row>
     <row r="17" customFormat="1" ht="14.25" spans="1:14">
       <c r="A17" s="18" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -2953,12 +3022,12 @@
     </row>
     <row r="18" customFormat="1" ht="14.25" spans="1:14">
       <c r="A18" s="18" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -2967,7 +3036,7 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
@@ -2975,7 +3044,7 @@
     </row>
     <row r="19" customFormat="1" ht="14.25" spans="1:14">
       <c r="A19" s="18" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
@@ -2983,7 +3052,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -2995,11 +3064,11 @@
     </row>
     <row r="20" customFormat="1" ht="17" customHeight="1" spans="1:14">
       <c r="A20" s="18" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="15" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="17"/>
@@ -3015,7 +3084,7 @@
     </row>
     <row r="21" customFormat="1" ht="14.25" spans="1:14">
       <c r="A21" s="12" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
@@ -3025,7 +3094,7 @@
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
@@ -3035,12 +3104,12 @@
     </row>
     <row r="22" customFormat="1" ht="14.25" spans="1:14">
       <c r="A22" s="18" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
@@ -3049,7 +3118,7 @@
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
@@ -3057,16 +3126,16 @@
     </row>
     <row r="23" customFormat="1" ht="21" customHeight="1" spans="1:14">
       <c r="A23" s="18" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="15" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
@@ -3079,7 +3148,7 @@
     </row>
     <row r="24" customFormat="1" ht="14.25" spans="1:14">
       <c r="A24" s="12" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
@@ -3097,14 +3166,14 @@
     </row>
     <row r="25" customFormat="1" ht="14.25" spans="1:14">
       <c r="A25" s="18" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -3117,12 +3186,12 @@
     </row>
     <row r="26" customFormat="1" ht="14.25" spans="1:14">
       <c r="A26" s="18" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
       <c r="D26" s="16" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
@@ -3137,7 +3206,7 @@
     </row>
     <row r="27" customFormat="1" ht="14.25" spans="1:14">
       <c r="A27" s="12" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
@@ -3155,7 +3224,7 @@
     </row>
     <row r="28" customFormat="1" ht="14.25" spans="1:14">
       <c r="A28" s="18" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
@@ -3173,7 +3242,7 @@
     </row>
     <row r="29" customFormat="1" ht="14.25" spans="1:14">
       <c r="A29" s="18" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
@@ -3191,7 +3260,7 @@
     </row>
     <row r="30" customFormat="1" ht="14.25" spans="1:14">
       <c r="A30" s="18" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
@@ -3209,7 +3278,7 @@
     </row>
     <row r="31" customFormat="1" ht="14.25" spans="1:14">
       <c r="A31" s="12" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
@@ -3227,11 +3296,11 @@
     </row>
     <row r="32" customFormat="1" ht="15" customHeight="1" spans="1:14">
       <c r="A32" s="12" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="15" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="17"/>
@@ -3247,34 +3316,34 @@
     </row>
     <row r="33" customFormat="1" ht="15" customHeight="1" spans="1:14">
       <c r="A33" s="12" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="19" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="20" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="J33" s="14"/>
       <c r="K33" s="20" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="L33" s="20" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="M33" s="14"/>
       <c r="N33" s="15"/>
@@ -3298,7 +3367,7 @@
     <row r="35" customFormat="1" spans="1:14">
       <c r="A35" s="14"/>
       <c r="B35" s="23" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="22"/>
